--- a/TO DO/to-do.xlsx
+++ b/TO DO/to-do.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil6" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Feuil5" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Feuil2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Feuil3" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Feuil4" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil6" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil5" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,152 +28,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
-    <t xml:space="preserve">Somme de Temps</t>
+    <t>Somme de Temps</t>
   </si>
   <si>
-    <t xml:space="preserve">Categorie</t>
+    <t>Categorie</t>
   </si>
   <si>
-    <t xml:space="preserve">Sous-categorie</t>
+    <t>Sous-categorie</t>
   </si>
   <si>
-    <t xml:space="preserve">Detail</t>
+    <t>Detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Temps</t>
+    <t>Temps</t>
   </si>
   <si>
-    <t xml:space="preserve">Qui ?</t>
+    <t>Qui ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Avancement</t>
+    <t>Avancement</t>
   </si>
   <si>
-    <t xml:space="preserve">Temps passe</t>
+    <t>Temps passe</t>
   </si>
   <si>
-    <t xml:space="preserve">Reste</t>
+    <t>Reste</t>
   </si>
   <si>
-    <t xml:space="preserve">bdd</t>
+    <t>bdd</t>
   </si>
   <si>
-    <t xml:space="preserve">créer table</t>
+    <t>créer table</t>
   </si>
   <si>
-    <t xml:space="preserve">match</t>
+    <t>match</t>
   </si>
   <si>
-    <t xml:space="preserve">Rebecca</t>
+    <t>Rebecca</t>
   </si>
   <si>
-    <t xml:space="preserve">index.html</t>
+    <t>index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">html</t>
+    <t>html</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouton valider</t>
+    <t>Bouton valider</t>
   </si>
   <si>
-    <t xml:space="preserve">css</t>
+    <t>css</t>
   </si>
   <si>
-    <t xml:space="preserve">Somme de Temps passe</t>
+    <t>Somme de Temps passe</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Résultat</t>
+    <t>Total Résultat</t>
   </si>
   <si>
-    <t xml:space="preserve">Progression</t>
+    <t>Progression</t>
   </si>
   <si>
-    <t xml:space="preserve">update</t>
+    <t>update</t>
   </si>
   <si>
-    <t xml:space="preserve">separer sets et updates subStr</t>
+    <t>separer sets et updates subStr</t>
   </si>
   <si>
-    <t xml:space="preserve">separer sets</t>
+    <t>separer sets</t>
   </si>
   <si>
-    <t xml:space="preserve">separer update</t>
+    <t>separer update</t>
   </si>
   <si>
-    <t xml:space="preserve">traiter requete</t>
+    <t>traiter requete</t>
   </si>
   <si>
-    <t xml:space="preserve">ajouter update dans grammaire principaux</t>
+    <t>ajouter update dans grammaire principaux</t>
   </si>
   <si>
-    <t xml:space="preserve">ajouter ataovy dans mots cles</t>
+    <t>ajouter ataovy dans mots cles</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 1 == update</t>
+    <t>check syntaxe 1 == update</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 2 == nomtable -&gt; is existe</t>
+    <t>check syntaxe 2 == nomtable -&gt; is existe</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 3 == ataovy</t>
+    <t>check syntaxe 3 == ataovy</t>
   </si>
   <si>
-    <t xml:space="preserve">fonction de traitement</t>
+    <t>fonction de traitement</t>
   </si>
   <si>
-    <t xml:space="preserve">fonction get indices des colonnes a updater</t>
+    <t>fonction get indices des colonnes a updater</t>
   </si>
   <si>
-    <t xml:space="preserve">fonction update dans fichier</t>
+    <t>fonction update dans fichier</t>
   </si>
   <si>
-    <t xml:space="preserve">insert</t>
+    <t>insert</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 1 == insert</t>
+    <t>check syntaxe 1 == insert</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 2 == ao</t>
+    <t>check syntaxe 2 == ao</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 3 == nomtable -&gt; is existe</t>
+    <t>check syntaxe 3 == nomtable -&gt; is existe</t>
   </si>
   <si>
-    <t xml:space="preserve">ajouter ireto dans mots cles</t>
+    <t>ajouter ireto dans mots cles</t>
   </si>
   <si>
-    <t xml:space="preserve">get les donnees a inserer (entre parentheses)</t>
+    <t>get les donnees a inserer (entre parentheses)</t>
   </si>
   <si>
-    <t xml:space="preserve">insertion donnees dans fichier</t>
+    <t>insertion donnees dans fichier</t>
   </si>
   <si>
-    <t xml:space="preserve">delete</t>
+    <t>delete</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 1 == delete</t>
+    <t>check syntaxe 1 == delete</t>
   </si>
   <si>
-    <t xml:space="preserve">check syntaxe 4 == izay</t>
+    <t>check syntaxe 4 == izay</t>
   </si>
   <si>
-    <t xml:space="preserve">verification</t>
+    <t>verification</t>
   </si>
   <si>
     <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>Manuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0\ %"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,22 +184,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -257,283 +250,214 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="8">
+    <cellStyle name="Catégorie de la table dynamique" xfId="5"/>
+    <cellStyle name="Champ de la table dynamique" xfId="4"/>
+    <cellStyle name="Coin de la table dynamique" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Coin de la table dynamique" xfId="20"/>
-    <cellStyle name="Valeur de la table dynamique" xfId="21"/>
-    <cellStyle name="Champ de la table dynamique" xfId="22"/>
-    <cellStyle name="Catégorie de la table dynamique" xfId="23"/>
-    <cellStyle name="Titre de la table dynamique" xfId="24"/>
-    <cellStyle name="Résultat de la table dynamique" xfId="25"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Résultat de la table dynamique" xfId="7"/>
+    <cellStyle name="Titre de la table dynamique" xfId="6"/>
+    <cellStyle name="Valeur de la table dynamique" xfId="3"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAC090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -592,13 +516,21 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="21" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedDate="0" createdVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D20" sheet="Feuil1"/>
   </cacheSource>
@@ -642,82 +574,6 @@
     </cacheField>
     <cacheField name="Temps" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="20" count="3">
-        <n v="5"/>
-        <n v="15"/>
-        <n v="20"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="21" createdVersion="3">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G20" sheet="Feuil1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Categorie" numFmtId="0">
-      <sharedItems count="3">
-        <s v="delete"/>
-        <s v="insert"/>
-        <s v="update"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sous-categorie" numFmtId="0">
-      <sharedItems count="3">
-        <s v="fonction de traitement"/>
-        <s v="separer sets et updates subStr"/>
-        <s v="traiter requete"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Detail" numFmtId="0">
-      <sharedItems count="19">
-        <s v="ajouter ataovy dans mots cles"/>
-        <s v="ajouter ireto dans mots cles"/>
-        <s v="ajouter update dans grammaire principaux"/>
-        <s v="check syntaxe 1 == delete"/>
-        <s v="check syntaxe 1 == insert"/>
-        <s v="check syntaxe 1 == update"/>
-        <s v="check syntaxe 2 == ao"/>
-        <s v="check syntaxe 2 == nomtable -&gt; is existe"/>
-        <s v="check syntaxe 3 == ataovy"/>
-        <s v="check syntaxe 3 == nomtable -&gt; is existe"/>
-        <s v="check syntaxe 4 == izay"/>
-        <s v="fonction get indices des colonnes a updater"/>
-        <s v="fonction get indices des lignes a supprimer"/>
-        <s v="fonction update dans fichier"/>
-        <s v="get les donnees a inserer (entre parentheses)"/>
-        <s v="insertion donnees dans fichier"/>
-        <s v="separer sets"/>
-        <s v="separer update"/>
-        <s v="suppression ligne dans fichier"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Temps" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="20" count="3">
-        <n v="5"/>
-        <n v="15"/>
-        <n v="20"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Avancement" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Temps passe" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="4">
-        <n v="0"/>
-        <n v="5"/>
-        <n v="15"/>
-        <n v="20"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Reste" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="4">
-        <n v="0"/>
         <n v="5"/>
         <n v="15"/>
         <n v="20"/>
@@ -858,202 +714,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField compact="0" showAll="0"/>
@@ -1062,43 +724,14 @@
     <pivotField dataField="1" compact="0" showAll="0"/>
   </pivotFields>
   <dataFields count="1">
-    <dataField name="Somme de Temps" fld="3" subtotal="sum" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <dataFields count="2">
-    <dataField name="Somme de Temps passe" fld="6" subtotal="sum" numFmtId="164"/>
-    <dataField name="Somme - " fld="-2" subtotal="sum"/>
+    <dataField name="Somme de Temps" fld="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H4" totalsRowShown="0">
   <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Categorie"/>
@@ -1110,66 +743,339 @@
     <tableColumn id="7" name="Temps passe"/>
     <tableColumn id="8" name="Reste"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.29"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1195,117 +1101,109 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1313,63 +1211,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="11">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:DH1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DH26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:112" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1389,7 @@
       <c r="DG1" s="13"/>
       <c r="DH1" s="13"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -1509,21 +1399,21 @@
       <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="14">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="14">
         <v>20</v>
       </c>
-      <c r="G2" s="14" t="n">
-        <f aca="false">D2-F2</f>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G25" si="0">D2-F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="n">
-        <f aca="false">F24/(D24)</f>
+      <c r="H2" s="16">
+        <f>F26/(D26)</f>
         <v>1</v>
       </c>
       <c r="I2" s="17"/>
@@ -1631,7 +1521,7 @@
       <c r="DG2" s="17"/>
       <c r="DH2" s="17"/>
     </row>
-    <row r="3" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1641,17 +1531,17 @@
       <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="14">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="14">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <f aca="false">D3-F3</f>
+      <c r="G3" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="17"/>
@@ -1759,7 +1649,7 @@
       <c r="DG3" s="17"/>
       <c r="DH3" s="17"/>
     </row>
-    <row r="4" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1769,17 +1659,17 @@
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="n">
-        <f aca="false">D4-F4</f>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="17"/>
@@ -1887,7 +1777,7 @@
       <c r="DG4" s="17"/>
       <c r="DH4" s="17"/>
     </row>
-    <row r="5" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -1897,17 +1787,17 @@
       <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="n">
-        <f aca="false">D5-F5</f>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="17"/>
@@ -2015,7 +1905,7 @@
       <c r="DG5" s="17"/>
       <c r="DH5" s="17"/>
     </row>
-    <row r="6" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -2025,17 +1915,17 @@
       <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="n">
-        <f aca="false">D6-F6</f>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="17"/>
@@ -2143,7 +2033,7 @@
       <c r="DG6" s="17"/>
       <c r="DH6" s="17"/>
     </row>
-    <row r="7" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
@@ -2153,17 +2043,17 @@
       <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="14">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <f aca="false">D7-F7</f>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="17"/>
@@ -2271,7 +2161,7 @@
       <c r="DG7" s="17"/>
       <c r="DH7" s="17"/>
     </row>
-    <row r="8" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
@@ -2281,17 +2171,17 @@
       <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <f aca="false">D8-F8</f>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="17"/>
@@ -2399,7 +2289,7 @@
       <c r="DG8" s="17"/>
       <c r="DH8" s="17"/>
     </row>
-    <row r="9" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -2409,17 +2299,17 @@
       <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="14">
         <v>20</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="14">
         <v>20</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <f aca="false">D9-F9</f>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="17"/>
@@ -2527,7 +2417,7 @@
       <c r="DG9" s="17"/>
       <c r="DH9" s="17"/>
     </row>
-    <row r="10" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:112" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
@@ -2537,17 +2427,17 @@
       <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="14">
         <v>15</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="14">
         <v>15</v>
       </c>
-      <c r="G10" s="14" t="n">
-        <f aca="false">D10-F10</f>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="17"/>
@@ -2655,7 +2545,7 @@
       <c r="DG10" s="17"/>
       <c r="DH10" s="17"/>
     </row>
-    <row r="11" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
@@ -2665,17 +2555,17 @@
       <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="18">
         <v>5</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="18">
         <v>5</v>
       </c>
-      <c r="G11" s="18" t="n">
-        <f aca="false">D11-F11</f>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="17"/>
@@ -2783,7 +2673,7 @@
       <c r="DG11" s="17"/>
       <c r="DH11" s="17"/>
     </row>
-    <row r="12" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
@@ -2793,17 +2683,17 @@
       <c r="C12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="18">
         <v>5</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="18">
         <v>5</v>
       </c>
-      <c r="G12" s="18" t="n">
-        <f aca="false">D12-F12</f>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="17"/>
@@ -2911,7 +2801,7 @@
       <c r="DG12" s="17"/>
       <c r="DH12" s="17"/>
     </row>
-    <row r="13" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>33</v>
       </c>
@@ -2921,17 +2811,17 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="18">
         <v>5</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="18">
         <v>5</v>
       </c>
-      <c r="G13" s="18" t="n">
-        <f aca="false">D13-F13</f>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="17"/>
@@ -3039,7 +2929,7 @@
       <c r="DG13" s="17"/>
       <c r="DH13" s="17"/>
     </row>
-    <row r="14" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -3049,17 +2939,17 @@
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="18">
         <v>5</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="18">
         <v>5</v>
       </c>
-      <c r="G14" s="18" t="n">
-        <f aca="false">D14-F14</f>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="17"/>
@@ -3167,7 +3057,7 @@
       <c r="DG14" s="17"/>
       <c r="DH14" s="17"/>
     </row>
-    <row r="15" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>33</v>
       </c>
@@ -3177,17 +3067,17 @@
       <c r="C15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="18">
         <v>20</v>
       </c>
-      <c r="G15" s="18" t="n">
-        <f aca="false">D15-F15</f>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="17"/>
@@ -3295,7 +3185,7 @@
       <c r="DG15" s="17"/>
       <c r="DH15" s="17"/>
     </row>
-    <row r="16" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:112" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>33</v>
       </c>
@@ -3305,17 +3195,17 @@
       <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="18">
         <v>15</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="18">
         <v>15</v>
       </c>
-      <c r="G16" s="18" t="n">
-        <f aca="false">D16-F16</f>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="17"/>
@@ -3423,7 +3313,7 @@
       <c r="DG16" s="17"/>
       <c r="DH16" s="17"/>
     </row>
-    <row r="17" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:112" s="20" customFormat="1">
       <c r="A17" s="20" t="s">
         <v>40</v>
       </c>
@@ -3433,17 +3323,17 @@
       <c r="C17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="20">
         <v>5</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="20">
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">D17-F17</f>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="17"/>
@@ -3551,7 +3441,7 @@
       <c r="DG17" s="17"/>
       <c r="DH17" s="17"/>
     </row>
-    <row r="18" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:112" s="20" customFormat="1">
       <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
@@ -3561,17 +3451,17 @@
       <c r="C18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="20">
         <v>5</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="21">
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="20">
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="n">
-        <f aca="false">D18-F18</f>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="17"/>
@@ -3679,7 +3569,7 @@
       <c r="DG18" s="17"/>
       <c r="DH18" s="17"/>
     </row>
-    <row r="19" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:112" s="20" customFormat="1">
       <c r="A19" s="20" t="s">
         <v>40</v>
       </c>
@@ -3689,17 +3579,17 @@
       <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="20" t="n">
+      <c r="D19" s="20">
         <v>5</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="21">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="n">
+      <c r="F19" s="20">
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="n">
-        <f aca="false">D19-F19</f>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="17"/>
@@ -3807,7 +3697,7 @@
       <c r="DG19" s="17"/>
       <c r="DH19" s="17"/>
     </row>
-    <row r="20" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:112" s="20" customFormat="1">
       <c r="A20" s="20" t="s">
         <v>40</v>
       </c>
@@ -3817,17 +3707,17 @@
       <c r="C20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <v>5</v>
       </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="20">
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <f aca="false">D20-F20</f>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="17"/>
@@ -3935,7 +3825,7 @@
       <c r="DG20" s="17"/>
       <c r="DH20" s="17"/>
     </row>
-    <row r="21" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -3943,17 +3833,17 @@
         <v>20</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="22" t="n">
+      <c r="D21" s="22">
         <v>10</v>
       </c>
-      <c r="E21" s="23" t="n">
+      <c r="E21" s="23">
         <v>1</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="22">
         <v>10</v>
       </c>
-      <c r="G21" s="22" t="n">
-        <f aca="false">D21-F21</f>
+      <c r="G21" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="22"/>
@@ -4062,7 +3952,7 @@
       <c r="DG21" s="17"/>
       <c r="DH21" s="17"/>
     </row>
-    <row r="22" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
@@ -4070,17 +3960,17 @@
         <v>33</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="22">
         <v>10</v>
       </c>
-      <c r="E22" s="23" t="n">
+      <c r="E22" s="23">
         <v>1</v>
       </c>
-      <c r="F22" s="22" t="n">
+      <c r="F22" s="22">
         <v>10</v>
       </c>
-      <c r="G22" s="22" t="n">
-        <f aca="false">D22-F22</f>
+      <c r="G22" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="22"/>
@@ -4189,27 +4079,16 @@
       <c r="DG22" s="17"/>
       <c r="DH22" s="17"/>
     </row>
-    <row r="23" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>40</v>
-      </c>
+    <row r="23" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="22" t="n">
-        <f aca="false">D23-F23</f>
-        <v>0</v>
-      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -4316,22 +4195,15 @@
       <c r="DG23" s="17"/>
       <c r="DH23" s="17"/>
     </row>
-    <row r="24" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <f aca="false">SUM(D2:D23)</f>
-        <v>205</v>
-      </c>
-      <c r="F24" s="24" t="n">
-        <f aca="false">SUM(F2:F23)</f>
-        <v>205</v>
-      </c>
-      <c r="G24" s="24" t="n">
-        <f aca="false">SUM(G2:G21)</f>
-        <v>0</v>
-      </c>
+    <row r="24" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -4437,61 +4309,282 @@
       <c r="DG24" s="17"/>
       <c r="DH24" s="17"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
+        <v>10</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>10</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="17"/>
+      <c r="BL25" s="17"/>
+      <c r="BM25" s="17"/>
+      <c r="BN25" s="17"/>
+      <c r="BO25" s="17"/>
+      <c r="BP25" s="17"/>
+      <c r="BQ25" s="17"/>
+      <c r="BR25" s="17"/>
+      <c r="BS25" s="17"/>
+      <c r="BT25" s="17"/>
+      <c r="BU25" s="17"/>
+      <c r="BV25" s="17"/>
+      <c r="BW25" s="17"/>
+      <c r="BX25" s="17"/>
+      <c r="BY25" s="17"/>
+      <c r="BZ25" s="17"/>
+      <c r="CA25" s="17"/>
+      <c r="CB25" s="17"/>
+      <c r="CC25" s="17"/>
+      <c r="CD25" s="17"/>
+      <c r="CE25" s="17"/>
+      <c r="CF25" s="17"/>
+      <c r="CG25" s="17"/>
+      <c r="CH25" s="17"/>
+      <c r="CI25" s="17"/>
+      <c r="CJ25" s="17"/>
+      <c r="CK25" s="17"/>
+      <c r="CL25" s="17"/>
+      <c r="CM25" s="17"/>
+      <c r="CN25" s="17"/>
+      <c r="CO25" s="17"/>
+      <c r="CP25" s="17"/>
+      <c r="CQ25" s="17"/>
+      <c r="CR25" s="17"/>
+      <c r="CS25" s="17"/>
+      <c r="CT25" s="17"/>
+      <c r="CU25" s="17"/>
+      <c r="CV25" s="17"/>
+      <c r="CW25" s="17"/>
+      <c r="CX25" s="17"/>
+      <c r="CY25" s="17"/>
+      <c r="CZ25" s="17"/>
+      <c r="DA25" s="17"/>
+      <c r="DB25" s="17"/>
+      <c r="DC25" s="17"/>
+      <c r="DD25" s="17"/>
+      <c r="DE25" s="17"/>
+      <c r="DF25" s="17"/>
+      <c r="DG25" s="17"/>
+      <c r="DH25" s="17"/>
+    </row>
+    <row r="26" spans="1:112" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="24">
+        <f>SUM(D2:D25)</f>
+        <v>205</v>
+      </c>
+      <c r="F26" s="24">
+        <f>SUM(F2:F25)</f>
+        <v>205</v>
+      </c>
+      <c r="G26" s="24">
+        <f>SUM(G2:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="17"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="17"/>
+      <c r="BP26" s="17"/>
+      <c r="BQ26" s="17"/>
+      <c r="BR26" s="17"/>
+      <c r="BS26" s="17"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="17"/>
+      <c r="BV26" s="17"/>
+      <c r="BW26" s="17"/>
+      <c r="BX26" s="17"/>
+      <c r="BY26" s="17"/>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="17"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="17"/>
+      <c r="CH26" s="17"/>
+      <c r="CI26" s="17"/>
+      <c r="CJ26" s="17"/>
+      <c r="CK26" s="17"/>
+      <c r="CL26" s="17"/>
+      <c r="CM26" s="17"/>
+      <c r="CN26" s="17"/>
+      <c r="CO26" s="17"/>
+      <c r="CP26" s="17"/>
+      <c r="CQ26" s="17"/>
+      <c r="CR26" s="17"/>
+      <c r="CS26" s="17"/>
+      <c r="CT26" s="17"/>
+      <c r="CU26" s="17"/>
+      <c r="CV26" s="17"/>
+      <c r="CW26" s="17"/>
+      <c r="CX26" s="17"/>
+      <c r="CY26" s="17"/>
+      <c r="CZ26" s="17"/>
+      <c r="DA26" s="17"/>
+      <c r="DB26" s="17"/>
+      <c r="DC26" s="17"/>
+      <c r="DD26" s="17"/>
+      <c r="DE26" s="17"/>
+      <c r="DF26" s="17"/>
+      <c r="DG26" s="17"/>
+      <c r="DH26" s="17"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TO DO/to-do.xlsx
+++ b/TO DO/to-do.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Somme de Temps</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Manuel</t>
+  </si>
+  <si>
+    <t>créer desc et table manuel</t>
+  </si>
+  <si>
+    <t>manuel</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1252,7 @@
   <dimension ref="A1:DH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="H2" s="16">
         <f>F26/(D26)</f>
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4083,12 +4089,23 @@
       <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="D23" s="22">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>10</v>
+      </c>
+      <c r="G23" s="22">
+        <f>D23-F23</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="22"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -4196,13 +4213,26 @@
       <c r="DH23" s="17"/>
     </row>
     <row r="24" spans="1:112" s="20" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="22">
+        <v>10</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>10</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H24" s="22"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -4313,22 +4343,22 @@
       <c r="A25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>40</v>
+      <c r="B25" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22">
         <v>10</v>
       </c>
       <c r="E25" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="17"/>
@@ -4442,11 +4472,11 @@
       </c>
       <c r="D26" s="24">
         <f>SUM(D2:D25)</f>
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F26" s="24">
         <f>SUM(F2:F25)</f>
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G26" s="24">
         <f>SUM(G2:G21)</f>

--- a/TO DO/to-do.xlsx
+++ b/TO DO/to-do.xlsx
@@ -16,9 +16,8 @@
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -721,7 +720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField compact="0" showAll="0"/>
@@ -1252,7 +1251,7 @@
   <dimension ref="A1:DH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="H2" s="16">
         <f>F26/(D26)</f>
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4351,14 +4350,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="17"/>
@@ -4476,7 +4475,7 @@
       </c>
       <c r="F26" s="24">
         <f>SUM(F2:F25)</f>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G26" s="24">
         <f>SUM(G2:G21)</f>
